--- a/exekuce/update22/kraje.xlsx
+++ b/exekuce/update22/kraje.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://operator-my.sharepoint.com/personal/soukupova_bara_operatorict_cz/Documents/Dokumenty/GitHub/barasoukup.github.io/exekuce/update22/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_23F921EDF2830A5CCA59E0A6CE73E07E7452BE57" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C13735A-CFB3-4850-B35D-F600DFC5E10B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14532" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -136,8 +155,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +219,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -246,7 +273,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,9 +305,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,6 +357,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -487,14 +550,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -571,7 +636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -579,7 +644,7 @@
         <v>447090</v>
       </c>
       <c r="C2">
-        <v>6.025065696381645</v>
+        <v>6.0250656963816454</v>
       </c>
       <c r="D2">
         <v>74205</v>
@@ -591,7 +656,7 @@
         <v>341060</v>
       </c>
       <c r="G2">
-        <v>381896.0451315991</v>
+        <v>381896.04513159912</v>
       </c>
       <c r="H2">
         <v>1399520.487743414</v>
@@ -633,7 +698,7 @@
         <v>1071934</v>
       </c>
       <c r="U2">
-        <v>0.06922534409767765</v>
+        <v>6.9225344097677652E-2</v>
       </c>
       <c r="V2">
         <v>6</v>
@@ -642,13 +707,13 @@
         <v>1</v>
       </c>
       <c r="X2">
-        <v>0.7201131999191429</v>
+        <v>0.72011319991914291</v>
       </c>
       <c r="Y2">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -656,7 +721,7 @@
         <v>396733</v>
       </c>
       <c r="C3">
-        <v>5.755676130511105</v>
+        <v>5.7556761305111053</v>
       </c>
       <c r="D3">
         <v>68929</v>
@@ -668,7 +733,7 @@
         <v>329183</v>
       </c>
       <c r="G3">
-        <v>260463.8089303019</v>
+        <v>260463.80893030189</v>
       </c>
       <c r="H3">
         <v>1010793.070130134</v>
@@ -710,7 +775,7 @@
         <v>1138303</v>
       </c>
       <c r="U3">
-        <v>0.0605541758213762</v>
+        <v>6.0554175821376198E-2</v>
       </c>
       <c r="V3">
         <v>10</v>
@@ -719,13 +784,13 @@
         <v>5</v>
       </c>
       <c r="X3">
-        <v>0.7541383162384483</v>
+        <v>0.75413831623844829</v>
       </c>
       <c r="Y3">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -733,7 +798,7 @@
         <v>243192</v>
       </c>
       <c r="C4">
-        <v>6.912987862076807</v>
+        <v>6.9129878620768066</v>
       </c>
       <c r="D4">
         <v>35179</v>
@@ -745,10 +810,10 @@
         <v>364579</v>
       </c>
       <c r="G4">
-        <v>233821.4911630891</v>
+        <v>233821.49116308909</v>
       </c>
       <c r="H4">
-        <v>949110.02748799</v>
+        <v>949110.02748798998</v>
       </c>
       <c r="I4">
         <v>471</v>
@@ -787,7 +852,7 @@
         <v>535478</v>
       </c>
       <c r="U4">
-        <v>0.06569644317787099</v>
+        <v>6.5696443177870989E-2</v>
       </c>
       <c r="V4">
         <v>8</v>
@@ -796,13 +861,13 @@
         <v>6</v>
       </c>
       <c r="X4">
-        <v>0.7759743028511328</v>
+        <v>0.77597430285113278</v>
       </c>
       <c r="Y4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -810,7 +875,7 @@
         <v>210611</v>
       </c>
       <c r="C5">
-        <v>5.838142758142758</v>
+        <v>5.8381427581427578</v>
       </c>
       <c r="D5">
         <v>36075</v>
@@ -822,10 +887,10 @@
         <v>283797</v>
       </c>
       <c r="G5">
-        <v>206339.8296985613</v>
+        <v>206339.82969856131</v>
       </c>
       <c r="H5">
-        <v>841207.1918503118</v>
+        <v>841207.19185031182</v>
       </c>
       <c r="I5">
         <v>523</v>
@@ -864,7 +929,7 @@
         <v>487994</v>
       </c>
       <c r="U5">
-        <v>0.07392508924290053</v>
+        <v>7.3925089242900532E-2</v>
       </c>
       <c r="V5">
         <v>5</v>
@@ -873,13 +938,13 @@
         <v>11</v>
       </c>
       <c r="X5">
-        <v>0.7193069993069993</v>
+        <v>0.71930699930699926</v>
       </c>
       <c r="Y5">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -887,7 +952,7 @@
         <v>185792</v>
       </c>
       <c r="C6">
-        <v>5.908850936615463</v>
+        <v>5.9088509366154627</v>
       </c>
       <c r="D6">
         <v>31443</v>
@@ -899,10 +964,10 @@
         <v>303399</v>
       </c>
       <c r="G6">
-        <v>158058.457005177</v>
+        <v>158058.45700517701</v>
       </c>
       <c r="H6">
-        <v>692065.472664822</v>
+        <v>692065.47266482201</v>
       </c>
       <c r="I6">
         <v>287</v>
@@ -950,13 +1015,13 @@
         <v>14</v>
       </c>
       <c r="X6">
-        <v>0.7770250930254746</v>
+        <v>0.77702509302547462</v>
       </c>
       <c r="Y6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -964,7 +1029,7 @@
         <v>639711</v>
       </c>
       <c r="C7">
-        <v>6.777245711985253</v>
+        <v>6.7772457119852527</v>
       </c>
       <c r="D7">
         <v>94391</v>
@@ -976,10 +1041,10 @@
         <v>308432</v>
       </c>
       <c r="G7">
-        <v>137661.3613271125</v>
+        <v>137661.36132711251</v>
       </c>
       <c r="H7">
-        <v>698676.4489940779</v>
+        <v>698676.44899407786</v>
       </c>
       <c r="I7">
         <v>773</v>
@@ -1018,7 +1083,7 @@
         <v>671745</v>
       </c>
       <c r="U7">
-        <v>0.1405161184675733</v>
+        <v>0.14051611846757331</v>
       </c>
       <c r="V7">
         <v>1</v>
@@ -1033,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1041,7 +1106,7 @@
         <v>209964</v>
       </c>
       <c r="C8">
-        <v>6.192349662311617</v>
+        <v>6.1923496623116172</v>
       </c>
       <c r="D8">
         <v>33907</v>
@@ -1056,7 +1121,7 @@
         <v>252740.6069749216</v>
       </c>
       <c r="H8">
-        <v>936612.6235290648</v>
+        <v>936612.62352906482</v>
       </c>
       <c r="I8">
         <v>305</v>
@@ -1095,7 +1160,7 @@
         <v>366364</v>
       </c>
       <c r="U8">
-        <v>0.09255003220840476</v>
+        <v>9.2550032208404756E-2</v>
       </c>
       <c r="V8">
         <v>3</v>
@@ -1104,13 +1169,13 @@
         <v>7</v>
       </c>
       <c r="X8">
-        <v>0.7900138614445394</v>
+        <v>0.79001386144453944</v>
       </c>
       <c r="Y8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1118,7 +1183,7 @@
         <v>167901</v>
       </c>
       <c r="C9">
-        <v>5.999678399142398</v>
+        <v>5.9996783991423976</v>
       </c>
       <c r="D9">
         <v>27985</v>
@@ -1172,7 +1237,7 @@
         <v>457466</v>
       </c>
       <c r="U9">
-        <v>0.06117394516750971</v>
+        <v>6.1173945167509708E-2</v>
       </c>
       <c r="V9">
         <v>9</v>
@@ -1181,13 +1246,13 @@
         <v>9</v>
       </c>
       <c r="X9">
-        <v>0.7839914239771306</v>
+        <v>0.78399142397713062</v>
       </c>
       <c r="Y9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1195,7 +1260,7 @@
         <v>143865</v>
       </c>
       <c r="C10">
-        <v>5.80686175580222</v>
+        <v>5.8068617558022204</v>
       </c>
       <c r="D10">
         <v>24775</v>
@@ -1207,10 +1272,10 @@
         <v>318635</v>
       </c>
       <c r="G10">
-        <v>259871.9283397105</v>
+        <v>259871.92833971049</v>
       </c>
       <c r="H10">
-        <v>935444.2529566095</v>
+        <v>935444.25295660947</v>
       </c>
       <c r="I10">
         <v>368</v>
@@ -1249,7 +1314,7 @@
         <v>431633</v>
       </c>
       <c r="U10">
-        <v>0.05739829901791568</v>
+        <v>5.7398299017915683E-2</v>
       </c>
       <c r="V10">
         <v>12</v>
@@ -1258,13 +1323,13 @@
         <v>8</v>
       </c>
       <c r="X10">
-        <v>0.7624621594349142</v>
+        <v>0.76246215943491424</v>
       </c>
       <c r="Y10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1272,7 +1337,7 @@
         <v>121141</v>
       </c>
       <c r="C11">
-        <v>6.431013431013431</v>
+        <v>6.4310134310134313</v>
       </c>
       <c r="D11">
         <v>18837</v>
@@ -1284,10 +1349,10 @@
         <v>390470</v>
       </c>
       <c r="G11">
-        <v>418234.2552773687</v>
+        <v>418234.25527736871</v>
       </c>
       <c r="H11">
-        <v>1167106.45092106</v>
+        <v>1167106.4509210601</v>
       </c>
       <c r="I11">
         <v>240</v>
@@ -1326,7 +1391,7 @@
         <v>424461</v>
       </c>
       <c r="U11">
-        <v>0.04437863549301349</v>
+        <v>4.4378635493013491E-2</v>
       </c>
       <c r="V11">
         <v>14</v>
@@ -1335,13 +1400,13 @@
         <v>2</v>
       </c>
       <c r="X11">
-        <v>0.7807506503158677</v>
+        <v>0.78075065031586766</v>
       </c>
       <c r="Y11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1349,7 +1414,7 @@
         <v>391849</v>
       </c>
       <c r="C12">
-        <v>6.573765266407194</v>
+        <v>6.5737652664071939</v>
       </c>
       <c r="D12">
         <v>59608</v>
@@ -1361,7 +1426,7 @@
         <v>365825</v>
       </c>
       <c r="G12">
-        <v>240953.8053220806</v>
+        <v>240953.80532208059</v>
       </c>
       <c r="H12">
         <v>1028225.884730238</v>
@@ -1403,7 +1468,7 @@
         <v>990498</v>
       </c>
       <c r="U12">
-        <v>0.06017982873261733</v>
+        <v>6.0179828732617333E-2</v>
       </c>
       <c r="V12">
         <v>11</v>
@@ -1412,13 +1477,13 @@
         <v>4</v>
       </c>
       <c r="X12">
-        <v>0.7698966581666891</v>
+        <v>0.76989665816668906</v>
       </c>
       <c r="Y12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1426,7 +1491,7 @@
         <v>207962</v>
       </c>
       <c r="C13">
-        <v>5.989171442559686</v>
+        <v>5.9891714425596856</v>
       </c>
       <c r="D13">
         <v>34723</v>
@@ -1438,10 +1503,10 @@
         <v>300293</v>
       </c>
       <c r="G13">
-        <v>200335.8950945188</v>
+        <v>200335.89509451881</v>
       </c>
       <c r="H13">
-        <v>851441.379287504</v>
+        <v>851441.37928750401</v>
       </c>
       <c r="I13">
         <v>424</v>
@@ -1480,7 +1545,7 @@
         <v>524703</v>
       </c>
       <c r="U13">
-        <v>0.06617648460176519</v>
+        <v>6.6176484601765187E-2</v>
       </c>
       <c r="V13">
         <v>7</v>
@@ -1489,13 +1554,13 @@
         <v>10</v>
       </c>
       <c r="X13">
-        <v>0.7740690608530368</v>
+        <v>0.77406906085303684</v>
       </c>
       <c r="Y13">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -1515,10 +1580,10 @@
         <v>352799</v>
       </c>
       <c r="G14">
-        <v>292349.4172142225</v>
+        <v>292349.41721422249</v>
       </c>
       <c r="H14">
-        <v>1101671.674147095</v>
+        <v>1101671.6741470951</v>
       </c>
       <c r="I14">
         <v>240</v>
@@ -1557,7 +1622,7 @@
         <v>484593</v>
       </c>
       <c r="U14">
-        <v>0.04542574903062983</v>
+        <v>4.5425749030629833E-2</v>
       </c>
       <c r="V14">
         <v>13</v>
@@ -1572,7 +1637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -1580,7 +1645,7 @@
         <v>536149</v>
       </c>
       <c r="C15">
-        <v>5.951391972293758</v>
+        <v>5.9513919722937576</v>
       </c>
       <c r="D15">
         <v>90088</v>
@@ -1595,7 +1660,7 @@
         <v>176294.8827026966</v>
       </c>
       <c r="H15">
-        <v>724995.6649165261</v>
+        <v>724995.66491652606</v>
       </c>
       <c r="I15">
         <v>770</v>
@@ -1634,7 +1699,7 @@
         <v>997371</v>
       </c>
       <c r="U15">
-        <v>0.09032546564919172</v>
+        <v>9.0325465649191722E-2</v>
       </c>
       <c r="V15">
         <v>4</v>
@@ -1643,10 +1708,24 @@
         <v>12</v>
       </c>
       <c r="X15">
-        <v>0.8044911641950093</v>
+        <v>0.80449116419500932</v>
       </c>
       <c r="Y15">
         <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <f>SUM(D2:D15)</f>
+        <v>652158</v>
+      </c>
+      <c r="T16">
+        <f>SUM(T2:T15)</f>
+        <v>8823299</v>
+      </c>
+      <c r="U16">
+        <f>D16/T16</f>
+        <v>7.3913170119249041E-2</v>
       </c>
     </row>
   </sheetData>

--- a/exekuce/update22/kraje.xlsx
+++ b/exekuce/update22/kraje.xlsx
@@ -1,34 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://operator-my.sharepoint.com/personal/soukupova_bara_operatorict_cz/Documents/Dokumenty/GitHub/barasoukup.github.io/exekuce/update22/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_23F921EDF2830A5CCA59E0A6CE73E07E7452BE57" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C13735A-CFB3-4850-B35D-F600DFC5E10B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14532" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -155,8 +136,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,14 +200,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -273,7 +246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,27 +278,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,24 +312,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -550,16 +487,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -636,7 +571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -644,7 +579,7 @@
         <v>447090</v>
       </c>
       <c r="C2">
-        <v>6.0250656963816454</v>
+        <v>6.025065696381645</v>
       </c>
       <c r="D2">
         <v>74205</v>
@@ -656,7 +591,7 @@
         <v>341060</v>
       </c>
       <c r="G2">
-        <v>381896.04513159912</v>
+        <v>381896.0451315991</v>
       </c>
       <c r="H2">
         <v>1399520.487743414</v>
@@ -698,7 +633,7 @@
         <v>1071934</v>
       </c>
       <c r="U2">
-        <v>6.9225344097677652E-2</v>
+        <v>0.06922534409767765</v>
       </c>
       <c r="V2">
         <v>6</v>
@@ -707,13 +642,13 @@
         <v>1</v>
       </c>
       <c r="X2">
-        <v>0.72011319991914291</v>
+        <v>0.7201131999191429</v>
       </c>
       <c r="Y2">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -721,7 +656,7 @@
         <v>396733</v>
       </c>
       <c r="C3">
-        <v>5.7556761305111053</v>
+        <v>5.755676130511105</v>
       </c>
       <c r="D3">
         <v>68929</v>
@@ -733,7 +668,7 @@
         <v>329183</v>
       </c>
       <c r="G3">
-        <v>260463.80893030189</v>
+        <v>260463.8089303019</v>
       </c>
       <c r="H3">
         <v>1010793.070130134</v>
@@ -775,7 +710,7 @@
         <v>1138303</v>
       </c>
       <c r="U3">
-        <v>6.0554175821376198E-2</v>
+        <v>0.0605541758213762</v>
       </c>
       <c r="V3">
         <v>10</v>
@@ -784,13 +719,13 @@
         <v>5</v>
       </c>
       <c r="X3">
-        <v>0.75413831623844829</v>
+        <v>0.7541383162384483</v>
       </c>
       <c r="Y3">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -798,7 +733,7 @@
         <v>243192</v>
       </c>
       <c r="C4">
-        <v>6.9129878620768066</v>
+        <v>6.912987862076807</v>
       </c>
       <c r="D4">
         <v>35179</v>
@@ -810,10 +745,10 @@
         <v>364579</v>
       </c>
       <c r="G4">
-        <v>233821.49116308909</v>
+        <v>233821.4911630891</v>
       </c>
       <c r="H4">
-        <v>949110.02748798998</v>
+        <v>949110.02748799</v>
       </c>
       <c r="I4">
         <v>471</v>
@@ -852,7 +787,7 @@
         <v>535478</v>
       </c>
       <c r="U4">
-        <v>6.5696443177870989E-2</v>
+        <v>0.06569644317787099</v>
       </c>
       <c r="V4">
         <v>8</v>
@@ -861,13 +796,13 @@
         <v>6</v>
       </c>
       <c r="X4">
-        <v>0.77597430285113278</v>
+        <v>0.7759743028511328</v>
       </c>
       <c r="Y4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -875,7 +810,7 @@
         <v>210611</v>
       </c>
       <c r="C5">
-        <v>5.8381427581427578</v>
+        <v>5.838142758142758</v>
       </c>
       <c r="D5">
         <v>36075</v>
@@ -887,10 +822,10 @@
         <v>283797</v>
       </c>
       <c r="G5">
-        <v>206339.82969856131</v>
+        <v>206339.8296985613</v>
       </c>
       <c r="H5">
-        <v>841207.19185031182</v>
+        <v>841207.1918503118</v>
       </c>
       <c r="I5">
         <v>523</v>
@@ -929,7 +864,7 @@
         <v>487994</v>
       </c>
       <c r="U5">
-        <v>7.3925089242900532E-2</v>
+        <v>0.07392508924290053</v>
       </c>
       <c r="V5">
         <v>5</v>
@@ -938,13 +873,13 @@
         <v>11</v>
       </c>
       <c r="X5">
-        <v>0.71930699930699926</v>
+        <v>0.7193069993069993</v>
       </c>
       <c r="Y5">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -952,7 +887,7 @@
         <v>185792</v>
       </c>
       <c r="C6">
-        <v>5.9088509366154627</v>
+        <v>5.908850936615463</v>
       </c>
       <c r="D6">
         <v>31443</v>
@@ -964,10 +899,10 @@
         <v>303399</v>
       </c>
       <c r="G6">
-        <v>158058.45700517701</v>
+        <v>158058.457005177</v>
       </c>
       <c r="H6">
-        <v>692065.47266482201</v>
+        <v>692065.472664822</v>
       </c>
       <c r="I6">
         <v>287</v>
@@ -1015,13 +950,13 @@
         <v>14</v>
       </c>
       <c r="X6">
-        <v>0.77702509302547462</v>
+        <v>0.7770250930254746</v>
       </c>
       <c r="Y6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1029,7 +964,7 @@
         <v>639711</v>
       </c>
       <c r="C7">
-        <v>6.7772457119852527</v>
+        <v>6.777245711985253</v>
       </c>
       <c r="D7">
         <v>94391</v>
@@ -1041,10 +976,10 @@
         <v>308432</v>
       </c>
       <c r="G7">
-        <v>137661.36132711251</v>
+        <v>137661.3613271125</v>
       </c>
       <c r="H7">
-        <v>698676.44899407786</v>
+        <v>698676.4489940779</v>
       </c>
       <c r="I7">
         <v>773</v>
@@ -1083,7 +1018,7 @@
         <v>671745</v>
       </c>
       <c r="U7">
-        <v>0.14051611846757331</v>
+        <v>0.1405161184675733</v>
       </c>
       <c r="V7">
         <v>1</v>
@@ -1098,7 +1033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1106,7 +1041,7 @@
         <v>209964</v>
       </c>
       <c r="C8">
-        <v>6.1923496623116172</v>
+        <v>6.192349662311617</v>
       </c>
       <c r="D8">
         <v>33907</v>
@@ -1121,7 +1056,7 @@
         <v>252740.6069749216</v>
       </c>
       <c r="H8">
-        <v>936612.62352906482</v>
+        <v>936612.6235290648</v>
       </c>
       <c r="I8">
         <v>305</v>
@@ -1160,7 +1095,7 @@
         <v>366364</v>
       </c>
       <c r="U8">
-        <v>9.2550032208404756E-2</v>
+        <v>0.09255003220840476</v>
       </c>
       <c r="V8">
         <v>3</v>
@@ -1169,13 +1104,13 @@
         <v>7</v>
       </c>
       <c r="X8">
-        <v>0.79001386144453944</v>
+        <v>0.7900138614445394</v>
       </c>
       <c r="Y8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1183,7 +1118,7 @@
         <v>167901</v>
       </c>
       <c r="C9">
-        <v>5.9996783991423976</v>
+        <v>5.999678399142398</v>
       </c>
       <c r="D9">
         <v>27985</v>
@@ -1237,7 +1172,7 @@
         <v>457466</v>
       </c>
       <c r="U9">
-        <v>6.1173945167509708E-2</v>
+        <v>0.06117394516750971</v>
       </c>
       <c r="V9">
         <v>9</v>
@@ -1246,13 +1181,13 @@
         <v>9</v>
       </c>
       <c r="X9">
-        <v>0.78399142397713062</v>
+        <v>0.7839914239771306</v>
       </c>
       <c r="Y9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1260,7 +1195,7 @@
         <v>143865</v>
       </c>
       <c r="C10">
-        <v>5.8068617558022204</v>
+        <v>5.80686175580222</v>
       </c>
       <c r="D10">
         <v>24775</v>
@@ -1272,10 +1207,10 @@
         <v>318635</v>
       </c>
       <c r="G10">
-        <v>259871.92833971049</v>
+        <v>259871.9283397105</v>
       </c>
       <c r="H10">
-        <v>935444.25295660947</v>
+        <v>935444.2529566095</v>
       </c>
       <c r="I10">
         <v>368</v>
@@ -1314,7 +1249,7 @@
         <v>431633</v>
       </c>
       <c r="U10">
-        <v>5.7398299017915683E-2</v>
+        <v>0.05739829901791568</v>
       </c>
       <c r="V10">
         <v>12</v>
@@ -1323,13 +1258,13 @@
         <v>8</v>
       </c>
       <c r="X10">
-        <v>0.76246215943491424</v>
+        <v>0.7624621594349142</v>
       </c>
       <c r="Y10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1337,7 +1272,7 @@
         <v>121141</v>
       </c>
       <c r="C11">
-        <v>6.4310134310134313</v>
+        <v>6.431013431013431</v>
       </c>
       <c r="D11">
         <v>18837</v>
@@ -1349,10 +1284,10 @@
         <v>390470</v>
       </c>
       <c r="G11">
-        <v>418234.25527736871</v>
+        <v>418234.2552773687</v>
       </c>
       <c r="H11">
-        <v>1167106.4509210601</v>
+        <v>1167106.45092106</v>
       </c>
       <c r="I11">
         <v>240</v>
@@ -1391,7 +1326,7 @@
         <v>424461</v>
       </c>
       <c r="U11">
-        <v>4.4378635493013491E-2</v>
+        <v>0.04437863549301349</v>
       </c>
       <c r="V11">
         <v>14</v>
@@ -1400,13 +1335,13 @@
         <v>2</v>
       </c>
       <c r="X11">
-        <v>0.78075065031586766</v>
+        <v>0.7807506503158677</v>
       </c>
       <c r="Y11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1414,7 +1349,7 @@
         <v>391849</v>
       </c>
       <c r="C12">
-        <v>6.5737652664071939</v>
+        <v>6.573765266407194</v>
       </c>
       <c r="D12">
         <v>59608</v>
@@ -1426,7 +1361,7 @@
         <v>365825</v>
       </c>
       <c r="G12">
-        <v>240953.80532208059</v>
+        <v>240953.8053220806</v>
       </c>
       <c r="H12">
         <v>1028225.884730238</v>
@@ -1468,7 +1403,7 @@
         <v>990498</v>
       </c>
       <c r="U12">
-        <v>6.0179828732617333E-2</v>
+        <v>0.06017982873261733</v>
       </c>
       <c r="V12">
         <v>11</v>
@@ -1477,13 +1412,13 @@
         <v>4</v>
       </c>
       <c r="X12">
-        <v>0.76989665816668906</v>
+        <v>0.7698966581666891</v>
       </c>
       <c r="Y12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1491,7 +1426,7 @@
         <v>207962</v>
       </c>
       <c r="C13">
-        <v>5.9891714425596856</v>
+        <v>5.989171442559686</v>
       </c>
       <c r="D13">
         <v>34723</v>
@@ -1503,10 +1438,10 @@
         <v>300293</v>
       </c>
       <c r="G13">
-        <v>200335.89509451881</v>
+        <v>200335.8950945188</v>
       </c>
       <c r="H13">
-        <v>851441.37928750401</v>
+        <v>851441.379287504</v>
       </c>
       <c r="I13">
         <v>424</v>
@@ -1545,7 +1480,7 @@
         <v>524703</v>
       </c>
       <c r="U13">
-        <v>6.6176484601765187E-2</v>
+        <v>0.06617648460176519</v>
       </c>
       <c r="V13">
         <v>7</v>
@@ -1554,13 +1489,13 @@
         <v>10</v>
       </c>
       <c r="X13">
-        <v>0.77406906085303684</v>
+        <v>0.7740690608530368</v>
       </c>
       <c r="Y13">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -1580,10 +1515,10 @@
         <v>352799</v>
       </c>
       <c r="G14">
-        <v>292349.41721422249</v>
+        <v>292349.4172142225</v>
       </c>
       <c r="H14">
-        <v>1101671.6741470951</v>
+        <v>1101671.674147095</v>
       </c>
       <c r="I14">
         <v>240</v>
@@ -1622,7 +1557,7 @@
         <v>484593</v>
       </c>
       <c r="U14">
-        <v>4.5425749030629833E-2</v>
+        <v>0.04542574903062983</v>
       </c>
       <c r="V14">
         <v>13</v>
@@ -1637,7 +1572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -1645,7 +1580,7 @@
         <v>536149</v>
       </c>
       <c r="C15">
-        <v>5.9513919722937576</v>
+        <v>5.951391972293758</v>
       </c>
       <c r="D15">
         <v>90088</v>
@@ -1660,7 +1595,7 @@
         <v>176294.8827026966</v>
       </c>
       <c r="H15">
-        <v>724995.66491652606</v>
+        <v>724995.6649165261</v>
       </c>
       <c r="I15">
         <v>770</v>
@@ -1699,7 +1634,7 @@
         <v>997371</v>
       </c>
       <c r="U15">
-        <v>9.0325465649191722E-2</v>
+        <v>0.09032546564919172</v>
       </c>
       <c r="V15">
         <v>4</v>
@@ -1708,24 +1643,10 @@
         <v>12</v>
       </c>
       <c r="X15">
-        <v>0.80449116419500932</v>
+        <v>0.8044911641950093</v>
       </c>
       <c r="Y15">
         <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D16">
-        <f>SUM(D2:D15)</f>
-        <v>652158</v>
-      </c>
-      <c r="T16">
-        <f>SUM(T2:T15)</f>
-        <v>8823299</v>
-      </c>
-      <c r="U16">
-        <f>D16/T16</f>
-        <v>7.3913170119249041E-2</v>
       </c>
     </row>
   </sheetData>

--- a/exekuce/update22/kraje.xlsx
+++ b/exekuce/update22/kraje.xlsx
@@ -576,13 +576,13 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>447090</v>
+        <v>446200</v>
       </c>
       <c r="C2">
-        <v>6.025065696381645</v>
+        <v>6.086066971288276</v>
       </c>
       <c r="D2">
-        <v>74205</v>
+        <v>73315</v>
       </c>
       <c r="E2">
         <v>103851417793</v>
@@ -594,10 +594,10 @@
         <v>381896.0451315991</v>
       </c>
       <c r="H2">
-        <v>1399520.487743414</v>
+        <v>1416509.824633431</v>
       </c>
       <c r="I2">
-        <v>1037</v>
+        <v>147</v>
       </c>
       <c r="J2">
         <v>6040</v>
@@ -615,7 +615,7 @@
         <v>8776</v>
       </c>
       <c r="O2">
-        <v>20769</v>
+        <v>19879</v>
       </c>
       <c r="P2">
         <v>8047</v>
@@ -633,7 +633,7 @@
         <v>1071934</v>
       </c>
       <c r="U2">
-        <v>0.06922534409767765</v>
+        <v>0.0683950690994035</v>
       </c>
       <c r="V2">
         <v>6</v>
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="X2">
-        <v>0.7201131999191429</v>
+        <v>0.7288549410079793</v>
       </c>
       <c r="Y2">
         <v>13</v>
@@ -653,13 +653,13 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>396733</v>
+        <v>395907</v>
       </c>
       <c r="C3">
-        <v>5.755676130511105</v>
+        <v>5.813270879830847</v>
       </c>
       <c r="D3">
-        <v>68929</v>
+        <v>68104</v>
       </c>
       <c r="E3">
         <v>69672955531</v>
@@ -671,10 +671,10 @@
         <v>260463.8089303019</v>
       </c>
       <c r="H3">
-        <v>1010793.070130134</v>
+        <v>1023037.64141607</v>
       </c>
       <c r="I3">
-        <v>913</v>
+        <v>88</v>
       </c>
       <c r="J3">
         <v>6806</v>
@@ -692,10 +692,10 @@
         <v>6772</v>
       </c>
       <c r="O3">
-        <v>16947</v>
+        <v>16123</v>
       </c>
       <c r="P3">
-        <v>7893</v>
+        <v>7892</v>
       </c>
       <c r="Q3">
         <v>30525</v>
@@ -710,7 +710,7 @@
         <v>1138303</v>
       </c>
       <c r="U3">
-        <v>0.0605541758213762</v>
+        <v>0.05982941273105667</v>
       </c>
       <c r="V3">
         <v>10</v>
@@ -719,7 +719,7 @@
         <v>5</v>
       </c>
       <c r="X3">
-        <v>0.7541383162384483</v>
+        <v>0.7632591330905674</v>
       </c>
       <c r="Y3">
         <v>12</v>
@@ -730,13 +730,13 @@
         <v>27</v>
       </c>
       <c r="B4">
-        <v>243192</v>
+        <v>242802</v>
       </c>
       <c r="C4">
-        <v>6.912987862076807</v>
+        <v>6.979275058208054</v>
       </c>
       <c r="D4">
-        <v>35179</v>
+        <v>34789</v>
       </c>
       <c r="E4">
         <v>33388741657</v>
@@ -748,10 +748,10 @@
         <v>233821.4911630891</v>
       </c>
       <c r="H4">
-        <v>949110.02748799</v>
+        <v>959749.9685820231</v>
       </c>
       <c r="I4">
-        <v>471</v>
+        <v>81</v>
       </c>
       <c r="J4">
         <v>3992</v>
@@ -769,7 +769,7 @@
         <v>3373</v>
       </c>
       <c r="O4">
-        <v>7881</v>
+        <v>7491</v>
       </c>
       <c r="P4">
         <v>3679</v>
@@ -787,7 +787,7 @@
         <v>535478</v>
       </c>
       <c r="U4">
-        <v>0.06569644317787099</v>
+        <v>0.06496812193965018</v>
       </c>
       <c r="V4">
         <v>8</v>
@@ -796,10 +796,10 @@
         <v>6</v>
       </c>
       <c r="X4">
-        <v>0.7759743028511328</v>
+        <v>0.7846733162781339</v>
       </c>
       <c r="Y4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -807,13 +807,13 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <v>210611</v>
+        <v>210168</v>
       </c>
       <c r="C5">
-        <v>5.838142758142758</v>
+        <v>5.898293668612483</v>
       </c>
       <c r="D5">
-        <v>36075</v>
+        <v>35632</v>
       </c>
       <c r="E5">
         <v>30346549446</v>
@@ -825,10 +825,10 @@
         <v>206339.8296985613</v>
       </c>
       <c r="H5">
-        <v>841207.1918503118</v>
+        <v>851665.6220812752</v>
       </c>
       <c r="I5">
-        <v>523</v>
+        <v>80</v>
       </c>
       <c r="J5">
         <v>3929</v>
@@ -846,7 +846,7 @@
         <v>3327</v>
       </c>
       <c r="O5">
-        <v>10126</v>
+        <v>9683</v>
       </c>
       <c r="P5">
         <v>3877</v>
@@ -864,7 +864,7 @@
         <v>487994</v>
       </c>
       <c r="U5">
-        <v>0.07392508924290053</v>
+        <v>0.07301729119620323</v>
       </c>
       <c r="V5">
         <v>5</v>
@@ -873,7 +873,7 @@
         <v>11</v>
       </c>
       <c r="X5">
-        <v>0.7193069993069993</v>
+        <v>0.7282498877413561</v>
       </c>
       <c r="Y5">
         <v>14</v>
@@ -884,13 +884,13 @@
         <v>29</v>
       </c>
       <c r="B6">
-        <v>185792</v>
+        <v>185544</v>
       </c>
       <c r="C6">
-        <v>5.908850936615463</v>
+        <v>5.94787626222151</v>
       </c>
       <c r="D6">
-        <v>31443</v>
+        <v>31195</v>
       </c>
       <c r="E6">
         <v>21760614657</v>
@@ -902,10 +902,10 @@
         <v>158058.457005177</v>
       </c>
       <c r="H6">
-        <v>692065.472664822</v>
+        <v>697567.3876262221</v>
       </c>
       <c r="I6">
-        <v>287</v>
+        <v>39</v>
       </c>
       <c r="J6">
         <v>3646</v>
@@ -923,7 +923,7 @@
         <v>3231</v>
       </c>
       <c r="O6">
-        <v>7011</v>
+        <v>6763</v>
       </c>
       <c r="P6">
         <v>3491</v>
@@ -941,7 +941,7 @@
         <v>240756</v>
       </c>
       <c r="U6">
-        <v>0.1306011065144794</v>
+        <v>0.1295710179600924</v>
       </c>
       <c r="V6">
         <v>2</v>
@@ -950,10 +950,10 @@
         <v>14</v>
       </c>
       <c r="X6">
-        <v>0.7770250930254746</v>
+        <v>0.7832024362878667</v>
       </c>
       <c r="Y6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -961,13 +961,13 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>639711</v>
+        <v>639024</v>
       </c>
       <c r="C7">
-        <v>6.777245711985253</v>
+        <v>6.819602151455648</v>
       </c>
       <c r="D7">
-        <v>94391</v>
+        <v>93704</v>
       </c>
       <c r="E7">
         <v>65948768697</v>
@@ -979,10 +979,10 @@
         <v>137661.3613271125</v>
       </c>
       <c r="H7">
-        <v>698676.4489940779</v>
+        <v>703798.8634103134</v>
       </c>
       <c r="I7">
-        <v>773</v>
+        <v>86</v>
       </c>
       <c r="J7">
         <v>12244</v>
@@ -1000,7 +1000,7 @@
         <v>9339</v>
       </c>
       <c r="O7">
-        <v>17195</v>
+        <v>16508</v>
       </c>
       <c r="P7">
         <v>9089</v>
@@ -1018,7 +1018,7 @@
         <v>671745</v>
       </c>
       <c r="U7">
-        <v>0.1405161184675733</v>
+        <v>0.139493408957268</v>
       </c>
       <c r="V7">
         <v>1</v>
@@ -1027,7 +1027,7 @@
         <v>13</v>
       </c>
       <c r="X7">
-        <v>0.8178322085792078</v>
+        <v>0.8238282250490907</v>
       </c>
       <c r="Y7">
         <v>1</v>
@@ -1038,13 +1038,13 @@
         <v>31</v>
       </c>
       <c r="B8">
-        <v>209964</v>
+        <v>209670</v>
       </c>
       <c r="C8">
-        <v>6.192349662311617</v>
+        <v>6.237765150388243</v>
       </c>
       <c r="D8">
-        <v>33907</v>
+        <v>33613</v>
       </c>
       <c r="E8">
         <v>31757724226</v>
@@ -1056,10 +1056,10 @@
         <v>252740.6069749216</v>
       </c>
       <c r="H8">
-        <v>936612.6235290648</v>
+        <v>944804.8143872906</v>
       </c>
       <c r="I8">
-        <v>305</v>
+        <v>11</v>
       </c>
       <c r="J8">
         <v>3592</v>
@@ -1077,7 +1077,7 @@
         <v>3336</v>
       </c>
       <c r="O8">
-        <v>7120</v>
+        <v>6826</v>
       </c>
       <c r="P8">
         <v>3523</v>
@@ -1095,16 +1095,16 @@
         <v>366364</v>
       </c>
       <c r="U8">
-        <v>0.09255003220840476</v>
+        <v>0.09174755161533338</v>
       </c>
       <c r="V8">
         <v>3</v>
       </c>
       <c r="W8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X8">
-        <v>0.7900138614445394</v>
+        <v>0.7969238092404725</v>
       </c>
       <c r="Y8">
         <v>3</v>
@@ -1115,13 +1115,13 @@
         <v>32</v>
       </c>
       <c r="B9">
-        <v>167901</v>
+        <v>167651</v>
       </c>
       <c r="C9">
-        <v>5.999678399142398</v>
+        <v>6.044744907157022</v>
       </c>
       <c r="D9">
-        <v>27985</v>
+        <v>27735</v>
       </c>
       <c r="E9">
         <v>25351866832</v>
@@ -1133,10 +1133,10 @@
         <v>219021.7578881942</v>
       </c>
       <c r="H9">
-        <v>905909.123887797</v>
+        <v>914074.8812691545</v>
       </c>
       <c r="I9">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="J9">
         <v>3181</v>
@@ -1154,7 +1154,7 @@
         <v>2785</v>
       </c>
       <c r="O9">
-        <v>6045</v>
+        <v>5795</v>
       </c>
       <c r="P9">
         <v>3058</v>
@@ -1172,7 +1172,7 @@
         <v>457466</v>
       </c>
       <c r="U9">
-        <v>0.06117394516750971</v>
+        <v>0.0606274564667101</v>
       </c>
       <c r="V9">
         <v>9</v>
@@ -1181,7 +1181,7 @@
         <v>9</v>
       </c>
       <c r="X9">
-        <v>0.7839914239771306</v>
+        <v>0.7910582296736975</v>
       </c>
       <c r="Y9">
         <v>4</v>
@@ -1192,13 +1192,13 @@
         <v>33</v>
       </c>
       <c r="B10">
-        <v>143865</v>
+        <v>143522</v>
       </c>
       <c r="C10">
-        <v>5.80686175580222</v>
+        <v>5.874345121152587</v>
       </c>
       <c r="D10">
-        <v>24775</v>
+        <v>24432</v>
       </c>
       <c r="E10">
         <v>23175631367</v>
@@ -1210,10 +1210,10 @@
         <v>259871.9283397105</v>
       </c>
       <c r="H10">
-        <v>935444.2529566095</v>
+        <v>948576.9223559266</v>
       </c>
       <c r="I10">
-        <v>368</v>
+        <v>25</v>
       </c>
       <c r="J10">
         <v>2793</v>
@@ -1231,7 +1231,7 @@
         <v>2388</v>
       </c>
       <c r="O10">
-        <v>5885</v>
+        <v>5542</v>
       </c>
       <c r="P10">
         <v>2832</v>
@@ -1249,16 +1249,16 @@
         <v>431633</v>
       </c>
       <c r="U10">
-        <v>0.05739829901791568</v>
+        <v>0.05660364244624484</v>
       </c>
       <c r="V10">
         <v>12</v>
       </c>
       <c r="W10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X10">
-        <v>0.7624621594349142</v>
+        <v>0.773166339227243</v>
       </c>
       <c r="Y10">
         <v>10</v>
@@ -1269,13 +1269,13 @@
         <v>34</v>
       </c>
       <c r="B11">
-        <v>121141</v>
+        <v>120913</v>
       </c>
       <c r="C11">
-        <v>6.431013431013431</v>
+        <v>6.497554946531248</v>
       </c>
       <c r="D11">
-        <v>18837</v>
+        <v>18609</v>
       </c>
       <c r="E11">
         <v>21984784216</v>
@@ -1287,10 +1287,10 @@
         <v>418234.2552773687</v>
       </c>
       <c r="H11">
-        <v>1167106.45092106</v>
+        <v>1181405.997957977</v>
       </c>
       <c r="I11">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="J11">
         <v>1976</v>
@@ -1308,7 +1308,7 @@
         <v>1873</v>
       </c>
       <c r="O11">
-        <v>4130</v>
+        <v>3902</v>
       </c>
       <c r="P11">
         <v>2035</v>
@@ -1326,7 +1326,7 @@
         <v>424461</v>
       </c>
       <c r="U11">
-        <v>0.04437863549301349</v>
+        <v>0.0438414836698778</v>
       </c>
       <c r="V11">
         <v>14</v>
@@ -1335,7 +1335,7 @@
         <v>2</v>
       </c>
       <c r="X11">
-        <v>0.7807506503158677</v>
+        <v>0.7903165135149659</v>
       </c>
       <c r="Y11">
         <v>5</v>
@@ -1346,13 +1346,13 @@
         <v>35</v>
       </c>
       <c r="B12">
-        <v>391849</v>
+        <v>391150</v>
       </c>
       <c r="C12">
-        <v>6.573765266407194</v>
+        <v>6.63990222207133</v>
       </c>
       <c r="D12">
-        <v>59608</v>
+        <v>58909</v>
       </c>
       <c r="E12">
         <v>61290488537</v>
@@ -1364,10 +1364,10 @@
         <v>240953.8053220806</v>
       </c>
       <c r="H12">
-        <v>1028225.884730238</v>
+        <v>1040426.565329576</v>
       </c>
       <c r="I12">
-        <v>744</v>
+        <v>45</v>
       </c>
       <c r="J12">
         <v>5404</v>
@@ -1385,7 +1385,7 @@
         <v>6627</v>
       </c>
       <c r="O12">
-        <v>13716</v>
+        <v>13017</v>
       </c>
       <c r="P12">
         <v>6406</v>
@@ -1403,7 +1403,7 @@
         <v>990498</v>
       </c>
       <c r="U12">
-        <v>0.06017982873261733</v>
+        <v>0.05947412311786596</v>
       </c>
       <c r="V12">
         <v>11</v>
@@ -1412,7 +1412,7 @@
         <v>4</v>
       </c>
       <c r="X12">
-        <v>0.7698966581666891</v>
+        <v>0.7790320664075099</v>
       </c>
       <c r="Y12">
         <v>9</v>
@@ -1423,13 +1423,13 @@
         <v>36</v>
       </c>
       <c r="B13">
-        <v>207962</v>
+        <v>207585</v>
       </c>
       <c r="C13">
-        <v>5.989171442559686</v>
+        <v>6.043935247190357</v>
       </c>
       <c r="D13">
-        <v>34723</v>
+        <v>34346</v>
       </c>
       <c r="E13">
         <v>29564599013</v>
@@ -1441,10 +1441,10 @@
         <v>200335.8950945188</v>
       </c>
       <c r="H13">
-        <v>851441.379287504</v>
+        <v>860787.2536248763</v>
       </c>
       <c r="I13">
-        <v>424</v>
+        <v>47</v>
       </c>
       <c r="J13">
         <v>3454</v>
@@ -1462,7 +1462,7 @@
         <v>3757</v>
       </c>
       <c r="O13">
-        <v>7845</v>
+        <v>7468</v>
       </c>
       <c r="P13">
         <v>3709</v>
@@ -1480,7 +1480,7 @@
         <v>524703</v>
       </c>
       <c r="U13">
-        <v>0.06617648460176519</v>
+        <v>0.06545798289699126</v>
       </c>
       <c r="V13">
         <v>7</v>
@@ -1489,7 +1489,7 @@
         <v>10</v>
       </c>
       <c r="X13">
-        <v>0.7740690608530368</v>
+        <v>0.7825656553892738</v>
       </c>
       <c r="Y13">
         <v>8</v>
@@ -1500,13 +1500,13 @@
         <v>37</v>
       </c>
       <c r="B14">
-        <v>126996</v>
+        <v>126773</v>
       </c>
       <c r="C14">
-        <v>5.769136419388543</v>
+        <v>5.817944011014227</v>
       </c>
       <c r="D14">
-        <v>22013</v>
+        <v>21790</v>
       </c>
       <c r="E14">
         <v>24251098563</v>
@@ -1518,10 +1518,10 @@
         <v>292349.4172142225</v>
       </c>
       <c r="H14">
-        <v>1101671.674147095</v>
+        <v>1112946.239697109</v>
       </c>
       <c r="I14">
-        <v>240</v>
+        <v>17</v>
       </c>
       <c r="J14">
         <v>1729</v>
@@ -1539,7 +1539,7 @@
         <v>2441</v>
       </c>
       <c r="O14">
-        <v>5248</v>
+        <v>5025</v>
       </c>
       <c r="P14">
         <v>2540</v>
@@ -1557,7 +1557,7 @@
         <v>484593</v>
       </c>
       <c r="U14">
-        <v>0.04542574903062983</v>
+        <v>0.0449655690445384</v>
       </c>
       <c r="V14">
         <v>13</v>
@@ -1566,7 +1566,7 @@
         <v>3</v>
       </c>
       <c r="X14">
-        <v>0.7615954208876573</v>
+        <v>0.7693896282698486</v>
       </c>
       <c r="Y14">
         <v>11</v>
@@ -1577,13 +1577,13 @@
         <v>38</v>
       </c>
       <c r="B15">
-        <v>536149</v>
+        <v>535425</v>
       </c>
       <c r="C15">
-        <v>5.951391972293758</v>
+        <v>5.991506646971935</v>
       </c>
       <c r="D15">
-        <v>90088</v>
+        <v>89364</v>
       </c>
       <c r="E15">
         <v>65313409461</v>
@@ -1595,10 +1595,10 @@
         <v>176294.8827026966</v>
       </c>
       <c r="H15">
-        <v>724995.6649165261</v>
+        <v>730869.3597086075</v>
       </c>
       <c r="I15">
-        <v>770</v>
+        <v>46</v>
       </c>
       <c r="J15">
         <v>10243</v>
@@ -1616,7 +1616,7 @@
         <v>8525</v>
       </c>
       <c r="O15">
-        <v>17613</v>
+        <v>16889</v>
       </c>
       <c r="P15">
         <v>9438</v>
@@ -1634,7 +1634,7 @@
         <v>997371</v>
       </c>
       <c r="U15">
-        <v>0.09032546564919172</v>
+        <v>0.08959955723597338</v>
       </c>
       <c r="V15">
         <v>4</v>
@@ -1643,7 +1643,7 @@
         <v>12</v>
       </c>
       <c r="X15">
-        <v>0.8044911641950093</v>
+        <v>0.8110089073900004</v>
       </c>
       <c r="Y15">
         <v>2</v>
